--- a/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
+++ b/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T16:11:25+00:00</t>
+    <t>2024-10-31T16:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
+++ b/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T16:13:18+00:00</t>
+    <t>2024-11-01T18:17:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
+++ b/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-01T18:17:56+00:00</t>
+    <t>2024-11-02T11:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
+++ b/search/ig/StructureDefinition-as-ext-organization-pharmacy-licence.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-02T11:34:44+00:00</t>
+    <t>2024-12-02T15:12:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
